--- a/05 Sensitivity Analysis/Sensitivity Analysis With Excel.xlsx
+++ b/05 Sensitivity Analysis/Sensitivity Analysis With Excel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Practice Projects/46 Sensitivity Analysis With Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/05 Sensitivity Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{6A2C8DD3-8AB6-AA46-B959-8BD7EAA9FD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AECC7EBD-DDCB-5C45-9EF5-84E7050AEFF3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{63C82CFC-5F15-3A47-967D-2D5EB4E43D2A}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" xr2:uid="{63C82CFC-5F15-3A47-967D-2D5EB4E43D2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -147,20 +147,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,11 +477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB570EA1-32CF-764A-AA50-C1C7E1FE1722}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -489,12 +489,12 @@
     <col min="6" max="10" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -504,57 +504,57 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>150</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <f>B13</f>
         <v>40000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <f>G3-250</f>
         <v>500</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <f>H3-250</f>
         <v>750</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <f>B2</f>
         <v>1000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <f>H3+250</f>
         <v>1250</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <f>I3+250</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f>E5+25</f>
         <v>200</v>
       </c>
@@ -575,15 +575,15 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>10000</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8">
+      <c r="D5" s="9"/>
+      <c r="E5" s="6">
         <f>E6+25</f>
         <v>175</v>
       </c>
@@ -603,15 +603,15 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>50000</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8">
+      <c r="D6" s="9"/>
+      <c r="E6" s="6">
         <f>B3</f>
         <v>150</v>
       </c>
@@ -631,9 +631,9 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="9"/>
+      <c r="E7" s="6">
         <f>E6-25</f>
         <v>125</v>
       </c>
@@ -653,12 +653,12 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8">
+      <c r="D8" s="9"/>
+      <c r="E8" s="6">
         <f>E7-25</f>
         <v>100</v>
       </c>
@@ -678,7 +678,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -686,8 +686,8 @@
         <f>B2*B3</f>
         <v>150000</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="8">
+      <c r="D9" s="9"/>
+      <c r="E9" s="6">
         <f>E8-25</f>
         <v>75</v>
       </c>
@@ -707,7 +707,7 @@
         <v>-35000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -716,7 +716,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -725,7 +725,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -734,7 +734,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
